--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_1_Output_Data/2_YoY_Forecast_Vectors/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_CA84C73097195519AEFF31D2F87AE3807806F4D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8227E39B-DEF5-4E6C-97E4-67348B0052AB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="1780" yWindow="1780" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,11 +53,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,17 +119,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +244,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:E39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -415,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>32508</v>
       </c>
@@ -423,16 +457,16 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.309964607477767</v>
+        <v>3.3099646074777671</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>3.292079387398705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.2920793873987049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>32873</v>
       </c>
@@ -446,10 +480,10 @@
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>3.894766455402432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3.8947664554024319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>33238</v>
       </c>
@@ -457,16 +491,16 @@
         <v>1990</v>
       </c>
       <c r="C4">
-        <v>5.337917583757479</v>
+        <v>5.3379175837574788</v>
       </c>
       <c r="D4">
         <v>1991</v>
       </c>
       <c r="E4">
-        <v>5.271624700114952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>5.2716247001149519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>33603</v>
       </c>
@@ -474,7 +508,7 @@
         <v>1991</v>
       </c>
       <c r="C5">
-        <v>6.210850358288234</v>
+        <v>6.2108503582882344</v>
       </c>
       <c r="D5">
         <v>1992</v>
@@ -483,7 +517,7 @@
         <v>4.003658823348033</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>33969</v>
       </c>
@@ -491,16 +525,16 @@
         <v>1992</v>
       </c>
       <c r="C6">
-        <v>2.120896741860445</v>
+        <v>2.1208967418604452</v>
       </c>
       <c r="D6">
         <v>1993</v>
       </c>
       <c r="E6">
-        <v>3.093518793608729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>3.0935187936087289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>34334</v>
       </c>
@@ -508,16 +542,16 @@
         <v>1993</v>
       </c>
       <c r="C7">
-        <v>-1.105151118378667</v>
+        <v>-1.1051511183786671</v>
       </c>
       <c r="D7">
         <v>1994</v>
       </c>
       <c r="E7">
-        <v>1.162146262435582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.1621462624355821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>34699</v>
       </c>
@@ -525,16 +559,16 @@
         <v>1994</v>
       </c>
       <c r="C8">
-        <v>2.866096089773529</v>
+        <v>2.8660960897735288</v>
       </c>
       <c r="D8">
         <v>1995</v>
       </c>
       <c r="E8">
-        <v>1.295274349906239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1.2952743499062389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>35040</v>
       </c>
@@ -551,7 +585,7 @@
         <v>2.253863008704204</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>35403</v>
       </c>
@@ -559,16 +593,16 @@
         <v>1996</v>
       </c>
       <c r="C10">
-        <v>1.440827265940592</v>
+        <v>1.4408272659405921</v>
       </c>
       <c r="D10">
         <v>1997</v>
       </c>
       <c r="E10">
-        <v>2.507861161314984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>2.5078611613149842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>35768</v>
       </c>
@@ -576,7 +610,7 @@
         <v>1997</v>
       </c>
       <c r="C11">
-        <v>2.388790018333853</v>
+        <v>2.3887900183338528</v>
       </c>
       <c r="D11">
         <v>1998</v>
@@ -585,7 +619,7 @@
         <v>2.172278666428507</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>36132</v>
       </c>
@@ -599,10 +633,10 @@
         <v>1999</v>
       </c>
       <c r="E12">
-        <v>2.649778901248667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>2.6497789012486672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>36501</v>
       </c>
@@ -619,7 +653,7 @@
         <v>1.878782575038151</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>36858</v>
       </c>
@@ -633,10 +667,10 @@
         <v>2001</v>
       </c>
       <c r="E14">
-        <v>2.141413002119941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>2.1414130021199411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>37222</v>
       </c>
@@ -644,7 +678,7 @@
         <v>2001</v>
       </c>
       <c r="C15">
-        <v>0.8881197053071554</v>
+        <v>0.88811970530715545</v>
       </c>
       <c r="D15">
         <v>2002</v>
@@ -653,7 +687,7 @@
         <v>1.417229954124744</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>37581</v>
       </c>
@@ -667,10 +701,10 @@
         <v>2003</v>
       </c>
       <c r="E16">
-        <v>0.8114623372950991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.81146233729509909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>37938</v>
       </c>
@@ -678,16 +712,16 @@
         <v>2003</v>
       </c>
       <c r="C17">
-        <v>-0.160597218777192</v>
+        <v>-0.16059721877719199</v>
       </c>
       <c r="D17">
         <v>2004</v>
       </c>
       <c r="E17">
-        <v>0.06866307491661949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>6.8663074916619493E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>38302</v>
       </c>
@@ -695,16 +729,16 @@
         <v>2004</v>
       </c>
       <c r="C18">
-        <v>1.142421957279982</v>
+        <v>1.1424219572799821</v>
       </c>
       <c r="D18">
         <v>2005</v>
       </c>
       <c r="E18">
-        <v>0.6102547707981243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.61025477079812429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38671</v>
       </c>
@@ -721,7 +755,7 @@
         <v>1.236500865721557</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>39035</v>
       </c>
@@ -729,16 +763,16 @@
         <v>2006</v>
       </c>
       <c r="C20">
-        <v>2.573999374437519</v>
+        <v>2.5739993744375189</v>
       </c>
       <c r="D20">
         <v>2007</v>
       </c>
       <c r="E20">
-        <v>1.889446339562029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1.8894463395620289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>39400</v>
       </c>
@@ -746,16 +780,16 @@
         <v>2007</v>
       </c>
       <c r="C21">
-        <v>2.701415685301534</v>
+        <v>2.7014156853015341</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21">
-        <v>2.58473653892517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>2.5847365389251702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>39765</v>
       </c>
@@ -769,10 +803,10 @@
         <v>2009</v>
       </c>
       <c r="E22">
-        <v>1.386725702500713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>1.3867257025007129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>40130</v>
       </c>
@@ -780,16 +814,16 @@
         <v>2009</v>
       </c>
       <c r="C23">
-        <v>-5.011264053911613</v>
+        <v>-5.0112640539116127</v>
       </c>
       <c r="D23">
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>-0.4521396749079032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.45213967490790319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>40494</v>
       </c>
@@ -803,10 +837,10 @@
         <v>2011</v>
       </c>
       <c r="E24">
-        <v>0.3565121095773449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.35651210957734492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>40862</v>
       </c>
@@ -814,16 +848,16 @@
         <v>2011</v>
       </c>
       <c r="C25">
-        <v>3.266613546244024</v>
+        <v>3.2666135462440238</v>
       </c>
       <c r="D25">
         <v>2012</v>
       </c>
       <c r="E25">
-        <v>2.857059467652245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>2.8570594676522449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>41228</v>
       </c>
@@ -837,10 +871,10 @@
         <v>2013</v>
       </c>
       <c r="E26">
-        <v>2.293513746063258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>2.2935137460632582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>41592</v>
       </c>
@@ -848,7 +882,7 @@
         <v>2013</v>
       </c>
       <c r="C27">
-        <v>0.486130238396254</v>
+        <v>0.48613023839625402</v>
       </c>
       <c r="D27">
         <v>2014</v>
@@ -857,7 +891,7 @@
         <v>0.9879154814133928</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>41957</v>
       </c>
@@ -865,7 +899,7 @@
         <v>2014</v>
       </c>
       <c r="C28">
-        <v>1.462112914831626</v>
+        <v>1.4621129148316261</v>
       </c>
       <c r="D28">
         <v>2015</v>
@@ -874,7 +908,7 @@
         <v>0.5584147504514414</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>42321</v>
       </c>
@@ -891,7 +925,7 @@
         <v>1.630702503967973</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>42689</v>
       </c>
@@ -905,10 +939,10 @@
         <v>2017</v>
       </c>
       <c r="E30">
-        <v>1.365567739091578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>1.3655677390915779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>43053</v>
       </c>
@@ -916,7 +950,7 @@
         <v>2017</v>
       </c>
       <c r="C31">
-        <v>2.532746743612302</v>
+        <v>2.5327467436123019</v>
       </c>
       <c r="D31">
         <v>2018</v>
@@ -925,7 +959,7 @@
         <v>2.340401793803593</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>43418</v>
       </c>
@@ -933,16 +967,16 @@
         <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.55060959846447</v>
+        <v>1.5506095984644701</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
       <c r="E32">
-        <v>1.450339910498544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>1.4503399104985439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43783</v>
       </c>
@@ -950,16 +984,16 @@
         <v>2019</v>
       </c>
       <c r="C33">
-        <v>0.605733605626968</v>
+        <v>0.60573360562696799</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>0.9875621988306049</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.98756219883060492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44159</v>
       </c>
@@ -967,16 +1001,16 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-5.393157855150243</v>
+        <v>-5.3931578551502426</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.6614402521704976</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.66144025217049762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44525</v>
       </c>
@@ -984,16 +1018,16 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.658879889741361</v>
+        <v>2.6588798897413608</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.246339038163491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>1.2463390381634909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44890</v>
       </c>
@@ -1010,7 +1044,7 @@
         <v>1.097222285099164</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>45254</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>-0.02454192713037262</v>
+        <v>-2.4541927130372621E-2</v>
       </c>
       <c r="D37">
         <v>2024</v>
@@ -1027,7 +1061,7 @@
         <v>1.192480395252127</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>45618</v>
       </c>
@@ -1035,13 +1069,30 @@
         <v>2024</v>
       </c>
       <c r="C38">
-        <v>-0.1570176223593789</v>
+        <v>-0.15701762235937891</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38">
-        <v>-0.04544624979142542</v>
+        <v>-4.5446249791425419E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B39">
+        <v>2025</v>
+      </c>
+      <c r="C39">
+        <v>0.21940175159154141</v>
+      </c>
+      <c r="D39">
+        <v>2026</v>
+      </c>
+      <c r="E39">
+        <v>-0.18831859814396609</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_1_Output_Data/2_YoY_Forecast_Vectors/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_CA84C73097195519AEFF31D2F87AE3807806F4D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8227E39B-DEF5-4E6C-97E4-67348B0052AB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1780" yWindow="1780" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -53,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,25 +100,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +148,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,7 +182,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -244,10 +216,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,19 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:E39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -449,7 +415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>32508</v>
       </c>
@@ -457,16 +423,16 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.3099646074777671</v>
+        <v>3.309964607477767</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>3.2920793873987049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.292079387398705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>32873</v>
       </c>
@@ -480,10 +446,10 @@
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>3.8947664554024319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.894766455402432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>33238</v>
       </c>
@@ -491,16 +457,16 @@
         <v>1990</v>
       </c>
       <c r="C4">
-        <v>5.3379175837574788</v>
+        <v>5.337917583757479</v>
       </c>
       <c r="D4">
         <v>1991</v>
       </c>
       <c r="E4">
-        <v>5.2716247001149519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5.271624700114952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>33603</v>
       </c>
@@ -508,7 +474,7 @@
         <v>1991</v>
       </c>
       <c r="C5">
-        <v>6.2108503582882344</v>
+        <v>6.210850358288234</v>
       </c>
       <c r="D5">
         <v>1992</v>
@@ -517,7 +483,7 @@
         <v>4.003658823348033</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>33969</v>
       </c>
@@ -525,16 +491,16 @@
         <v>1992</v>
       </c>
       <c r="C6">
-        <v>2.1208967418604452</v>
+        <v>2.120896741860445</v>
       </c>
       <c r="D6">
         <v>1993</v>
       </c>
       <c r="E6">
-        <v>3.0935187936087289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3.093518793608729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>34334</v>
       </c>
@@ -542,16 +508,16 @@
         <v>1993</v>
       </c>
       <c r="C7">
-        <v>-1.1051511183786671</v>
+        <v>-1.105151118378667</v>
       </c>
       <c r="D7">
         <v>1994</v>
       </c>
       <c r="E7">
-        <v>1.1621462624355821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.162146262435582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>34699</v>
       </c>
@@ -559,16 +525,16 @@
         <v>1994</v>
       </c>
       <c r="C8">
-        <v>2.8660960897735288</v>
+        <v>2.866096089773529</v>
       </c>
       <c r="D8">
         <v>1995</v>
       </c>
       <c r="E8">
-        <v>1.2952743499062389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.295274349906239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>35040</v>
       </c>
@@ -585,7 +551,7 @@
         <v>2.253863008704204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>35403</v>
       </c>
@@ -593,16 +559,16 @@
         <v>1996</v>
       </c>
       <c r="C10">
-        <v>1.4408272659405921</v>
+        <v>1.440827265940592</v>
       </c>
       <c r="D10">
         <v>1997</v>
       </c>
       <c r="E10">
-        <v>2.5078611613149842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.507861161314984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>35768</v>
       </c>
@@ -610,7 +576,7 @@
         <v>1997</v>
       </c>
       <c r="C11">
-        <v>2.3887900183338528</v>
+        <v>2.388790018333853</v>
       </c>
       <c r="D11">
         <v>1998</v>
@@ -619,7 +585,7 @@
         <v>2.172278666428507</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>36132</v>
       </c>
@@ -633,10 +599,10 @@
         <v>1999</v>
       </c>
       <c r="E12">
-        <v>2.6497789012486672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.649778901248667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>36501</v>
       </c>
@@ -653,7 +619,7 @@
         <v>1.878782575038151</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>36858</v>
       </c>
@@ -667,10 +633,10 @@
         <v>2001</v>
       </c>
       <c r="E14">
-        <v>2.1414130021199411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.141413002119941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>37222</v>
       </c>
@@ -678,7 +644,7 @@
         <v>2001</v>
       </c>
       <c r="C15">
-        <v>0.88811970530715545</v>
+        <v>0.8881197053071554</v>
       </c>
       <c r="D15">
         <v>2002</v>
@@ -687,7 +653,7 @@
         <v>1.417229954124744</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>37581</v>
       </c>
@@ -701,10 +667,10 @@
         <v>2003</v>
       </c>
       <c r="E16">
-        <v>0.81146233729509909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.8114623372950991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>37938</v>
       </c>
@@ -712,16 +678,16 @@
         <v>2003</v>
       </c>
       <c r="C17">
-        <v>-0.16059721877719199</v>
+        <v>-0.160597218777192</v>
       </c>
       <c r="D17">
         <v>2004</v>
       </c>
       <c r="E17">
-        <v>6.8663074916619493E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.06866307491661949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>38302</v>
       </c>
@@ -729,16 +695,16 @@
         <v>2004</v>
       </c>
       <c r="C18">
-        <v>1.1424219572799821</v>
+        <v>1.142421957279982</v>
       </c>
       <c r="D18">
         <v>2005</v>
       </c>
       <c r="E18">
-        <v>0.61025477079812429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.6102547707981243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>38671</v>
       </c>
@@ -755,7 +721,7 @@
         <v>1.236500865721557</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>39035</v>
       </c>
@@ -763,16 +729,16 @@
         <v>2006</v>
       </c>
       <c r="C20">
-        <v>2.5739993744375189</v>
+        <v>2.573999374437519</v>
       </c>
       <c r="D20">
         <v>2007</v>
       </c>
       <c r="E20">
-        <v>1.8894463395620289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.889446339562029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>39400</v>
       </c>
@@ -780,16 +746,16 @@
         <v>2007</v>
       </c>
       <c r="C21">
-        <v>2.7014156853015341</v>
+        <v>2.701415685301534</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21">
-        <v>2.5847365389251702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.58473653892517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>39765</v>
       </c>
@@ -803,10 +769,10 @@
         <v>2009</v>
       </c>
       <c r="E22">
-        <v>1.3867257025007129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.386725702500713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>40130</v>
       </c>
@@ -814,16 +780,16 @@
         <v>2009</v>
       </c>
       <c r="C23">
-        <v>-5.0112640539116127</v>
+        <v>-5.011264053911613</v>
       </c>
       <c r="D23">
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>-0.45213967490790319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.4521396749079032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>40494</v>
       </c>
@@ -837,10 +803,10 @@
         <v>2011</v>
       </c>
       <c r="E24">
-        <v>0.35651210957734492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.3565121095773449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>40862</v>
       </c>
@@ -848,16 +814,16 @@
         <v>2011</v>
       </c>
       <c r="C25">
-        <v>3.2666135462440238</v>
+        <v>3.266613546244024</v>
       </c>
       <c r="D25">
         <v>2012</v>
       </c>
       <c r="E25">
-        <v>2.8570594676522449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.857059467652245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>41228</v>
       </c>
@@ -871,10 +837,10 @@
         <v>2013</v>
       </c>
       <c r="E26">
-        <v>2.2935137460632582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2.293513746063258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>41592</v>
       </c>
@@ -882,7 +848,7 @@
         <v>2013</v>
       </c>
       <c r="C27">
-        <v>0.48613023839625402</v>
+        <v>0.486130238396254</v>
       </c>
       <c r="D27">
         <v>2014</v>
@@ -891,7 +857,7 @@
         <v>0.9879154814133928</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>41957</v>
       </c>
@@ -899,7 +865,7 @@
         <v>2014</v>
       </c>
       <c r="C28">
-        <v>1.4621129148316261</v>
+        <v>1.462112914831626</v>
       </c>
       <c r="D28">
         <v>2015</v>
@@ -908,7 +874,7 @@
         <v>0.5584147504514414</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>42321</v>
       </c>
@@ -925,7 +891,7 @@
         <v>1.630702503967973</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>42689</v>
       </c>
@@ -939,10 +905,10 @@
         <v>2017</v>
       </c>
       <c r="E30">
-        <v>1.3655677390915779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.365567739091578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>43053</v>
       </c>
@@ -950,7 +916,7 @@
         <v>2017</v>
       </c>
       <c r="C31">
-        <v>2.5327467436123019</v>
+        <v>2.532746743612302</v>
       </c>
       <c r="D31">
         <v>2018</v>
@@ -959,7 +925,7 @@
         <v>2.340401793803593</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>43418</v>
       </c>
@@ -967,16 +933,16 @@
         <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.5506095984644701</v>
+        <v>1.55060959846447</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
       <c r="E32">
-        <v>1.4503399104985439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.450339910498544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>43783</v>
       </c>
@@ -984,16 +950,16 @@
         <v>2019</v>
       </c>
       <c r="C33">
-        <v>0.60573360562696799</v>
+        <v>0.605733605626968</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>0.98756219883060492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.9875621988306049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>44159</v>
       </c>
@@ -1001,16 +967,16 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-5.3931578551502426</v>
+        <v>-5.393157855150243</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.66144025217049762</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0.6614402521704976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>44525</v>
       </c>
@@ -1018,16 +984,16 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.6588798897413608</v>
+        <v>2.658879889741361</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.2463390381634909</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1.246339038163491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>44890</v>
       </c>
@@ -1044,7 +1010,7 @@
         <v>1.097222285099164</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>45254</v>
       </c>
@@ -1052,7 +1018,7 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>-2.4541927130372621E-2</v>
+        <v>-0.02454192713037262</v>
       </c>
       <c r="D37">
         <v>2024</v>
@@ -1061,7 +1027,7 @@
         <v>1.192480395252127</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>45618</v>
       </c>
@@ -1069,16 +1035,16 @@
         <v>2024</v>
       </c>
       <c r="C38">
-        <v>-0.15701762235937891</v>
+        <v>-0.1570176223593789</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38">
-        <v>-4.5446249791425419E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>-0.04544624979142542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>45986</v>
       </c>
@@ -1086,13 +1052,13 @@
         <v>2025</v>
       </c>
       <c r="C39">
-        <v>0.21940175159154141</v>
+        <v>0.2194017515915414</v>
       </c>
       <c r="D39">
         <v>2026</v>
       </c>
       <c r="E39">
-        <v>-0.18831859814396609</v>
+        <v>-0.1883185981439661</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_1_Output_Data/2_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
@@ -423,13 +423,13 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.309964607477767</v>
+        <v>3.123541145015474</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>3.292079387398705</v>
+        <v>3.275761698145385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.990753256129032</v>
+        <v>3.959010658874851</v>
       </c>
       <c r="D3">
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>3.894766455402432</v>
+        <v>3.716811705074696</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1990</v>
       </c>
       <c r="C4">
-        <v>5.337917583757479</v>
+        <v>4.722695063536686</v>
       </c>
       <c r="D4">
         <v>1991</v>
       </c>
       <c r="E4">
-        <v>5.271624700114952</v>
+        <v>5.522497812297966</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1991</v>
       </c>
       <c r="C5">
-        <v>6.210850358288234</v>
+        <v>6.739021039846627</v>
       </c>
       <c r="D5">
         <v>1992</v>
       </c>
       <c r="E5">
-        <v>4.003658823348033</v>
+        <v>3.88772167754905</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1992</v>
       </c>
       <c r="C6">
-        <v>2.120896741860445</v>
+        <v>2.619839412265601</v>
       </c>
       <c r="D6">
         <v>1993</v>
       </c>
       <c r="E6">
-        <v>3.093518793608729</v>
+        <v>2.645362710332533</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1993</v>
       </c>
       <c r="C7">
-        <v>-1.105151118378667</v>
+        <v>-0.7919564768266385</v>
       </c>
       <c r="D7">
         <v>1994</v>
       </c>
       <c r="E7">
-        <v>1.162146262435582</v>
+        <v>0.8976572162586516</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1994</v>
       </c>
       <c r="C8">
-        <v>2.866096089773529</v>
+        <v>1.877689851450803</v>
       </c>
       <c r="D8">
         <v>1995</v>
       </c>
       <c r="E8">
-        <v>1.295274349906239</v>
+        <v>1.899791808163398</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1995</v>
       </c>
       <c r="C9">
-        <v>2.255498870175066</v>
+        <v>2.705004599189187</v>
       </c>
       <c r="D9">
         <v>1996</v>
       </c>
       <c r="E9">
-        <v>2.253863008704204</v>
+        <v>2.111643953433728</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1996</v>
       </c>
       <c r="C10">
-        <v>1.440827265940592</v>
+        <v>1.110374544249249</v>
       </c>
       <c r="D10">
         <v>1997</v>
       </c>
       <c r="E10">
-        <v>2.507861161314984</v>
+        <v>2.576021643263426</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +576,13 @@
         <v>1997</v>
       </c>
       <c r="C11">
-        <v>2.388790018333853</v>
+        <v>2.267566233338814</v>
       </c>
       <c r="D11">
         <v>1998</v>
       </c>
       <c r="E11">
-        <v>2.172278666428507</v>
+        <v>2.348556921565126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +593,13 @@
         <v>1998</v>
       </c>
       <c r="C12">
-        <v>2.868603576215123</v>
+        <v>2.688433258834588</v>
       </c>
       <c r="D12">
         <v>1999</v>
       </c>
       <c r="E12">
-        <v>2.649778901248667</v>
+        <v>2.730428819177333</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>1999</v>
       </c>
       <c r="C13">
-        <v>1.199033587256038</v>
+        <v>1.014079695989589</v>
       </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>1.878782575038151</v>
+        <v>1.901826179618205</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>2000</v>
       </c>
       <c r="C14">
-        <v>3.180414548358224</v>
+        <v>3.013853578092252</v>
       </c>
       <c r="D14">
         <v>2001</v>
       </c>
       <c r="E14">
-        <v>2.141413002119941</v>
+        <v>2.435357021275819</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>2001</v>
       </c>
       <c r="C15">
-        <v>0.8881197053071554</v>
+        <v>1.331295149770684</v>
       </c>
       <c r="D15">
         <v>2002</v>
       </c>
       <c r="E15">
-        <v>1.417229954124744</v>
+        <v>1.127665471558248</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2002</v>
       </c>
       <c r="C16">
-        <v>0.2503723745896691</v>
+        <v>0.04589006555719699</v>
       </c>
       <c r="D16">
         <v>2003</v>
       </c>
       <c r="E16">
-        <v>0.8114623372950991</v>
+        <v>0.8401596151991431</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2003</v>
       </c>
       <c r="C17">
-        <v>-0.160597218777192</v>
+        <v>0.009546395482029624</v>
       </c>
       <c r="D17">
         <v>2004</v>
       </c>
       <c r="E17">
-        <v>0.06866307491661949</v>
+        <v>0.02245646656315881</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2004</v>
       </c>
       <c r="C18">
-        <v>1.142421957279982</v>
+        <v>0.8709390141433015</v>
       </c>
       <c r="D18">
         <v>2005</v>
       </c>
       <c r="E18">
-        <v>0.6102547707981243</v>
+        <v>0.7407001102931465</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2005</v>
       </c>
       <c r="C19">
-        <v>1.080932672358381</v>
+        <v>0.7652063367885598</v>
       </c>
       <c r="D19">
         <v>2006</v>
       </c>
       <c r="E19">
-        <v>1.236500865721557</v>
+        <v>1.397861196490657</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +729,13 @@
         <v>2006</v>
       </c>
       <c r="C20">
-        <v>2.573999374437519</v>
+        <v>2.267579219134386</v>
       </c>
       <c r="D20">
         <v>2007</v>
       </c>
       <c r="E20">
-        <v>1.889446339562029</v>
+        <v>2.220975586034668</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>2007</v>
       </c>
       <c r="C21">
-        <v>2.701415685301534</v>
+        <v>3.146753122914103</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21">
-        <v>2.58473653892517</v>
+        <v>2.456586080053058</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>2008</v>
       </c>
       <c r="C22">
-        <v>1.582937641859083</v>
+        <v>1.769033835366818</v>
       </c>
       <c r="D22">
         <v>2009</v>
       </c>
       <c r="E22">
-        <v>1.386725702500713</v>
+        <v>1.086632508372576</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>2009</v>
       </c>
       <c r="C23">
-        <v>-5.011264053911613</v>
+        <v>-4.774715709990263</v>
       </c>
       <c r="D23">
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>-0.4521396749079032</v>
+        <v>-0.8529145826070339</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>3.340769212732742</v>
+        <v>1.95493704440024</v>
       </c>
       <c r="D24">
         <v>2011</v>
       </c>
       <c r="E24">
-        <v>0.3565121095773449</v>
+        <v>1.373265374526711</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>2011</v>
       </c>
       <c r="C25">
-        <v>3.266613546244024</v>
+        <v>3.478075069442799</v>
       </c>
       <c r="D25">
         <v>2012</v>
       </c>
       <c r="E25">
-        <v>2.857059467652245</v>
+        <v>2.807281147895924</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>2012</v>
       </c>
       <c r="C26">
-        <v>1.171043385317327</v>
+        <v>1.232342134690434</v>
       </c>
       <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26">
-        <v>2.293513746063258</v>
+        <v>2.058767060726563</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>2013</v>
       </c>
       <c r="C27">
-        <v>0.486130238396254</v>
+        <v>0.2542811494408159</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
       <c r="E27">
-        <v>0.9879154814133928</v>
+        <v>1.100861823237564</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +865,13 @@
         <v>2014</v>
       </c>
       <c r="C28">
-        <v>1.462112914831626</v>
+        <v>1.519778766382096</v>
       </c>
       <c r="D28">
         <v>2015</v>
       </c>
       <c r="E28">
-        <v>0.5584147504514414</v>
+        <v>0.6176362615319508</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>2015</v>
       </c>
       <c r="C29">
-        <v>1.485174342633844</v>
+        <v>1.469441753880329</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29">
-        <v>1.630702503967973</v>
+        <v>1.593307036690472</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>2016</v>
       </c>
       <c r="C30">
-        <v>1.733072837491711</v>
+        <v>1.638203081492495</v>
       </c>
       <c r="D30">
         <v>2017</v>
       </c>
       <c r="E30">
-        <v>1.365567739091578</v>
+        <v>1.425381384581903</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>2017</v>
       </c>
       <c r="C31">
-        <v>2.532746743612302</v>
+        <v>2.268697431234346</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31">
-        <v>2.340401793803593</v>
+        <v>2.525738252590148</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.55060959846447</v>
+        <v>1.984425467899631</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
       <c r="E32">
-        <v>1.450339910498544</v>
+        <v>1.272991730262341</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>2019</v>
       </c>
       <c r="C33">
-        <v>0.605733605626968</v>
+        <v>0.6066448776129052</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>0.9875621988306049</v>
+        <v>0.8323605077169782</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-5.393157855150243</v>
+        <v>-4.243076347305386</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.6614402521704976</v>
+        <v>-0.2172115314521883</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.658879889741361</v>
+        <v>1.438499295329754</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.246339038163491</v>
+        <v>1.725839624491665</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2022</v>
       </c>
       <c r="C36">
-        <v>1.999826927380854</v>
+        <v>1.906593537051537</v>
       </c>
       <c r="D36">
         <v>2023</v>
       </c>
       <c r="E36">
-        <v>1.097222285099164</v>
+        <v>1.222362529774923</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>-0.02454192713037262</v>
+        <v>0.08348019664223827</v>
       </c>
       <c r="D37">
         <v>2024</v>
       </c>
       <c r="E37">
-        <v>1.192480395252127</v>
+        <v>0.9116426337375527</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>2024</v>
       </c>
       <c r="C38">
-        <v>-0.1570176223593789</v>
+        <v>-0.214505326882275</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38">
-        <v>-0.04544624979142542</v>
+        <v>-0.02742999272021818</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2025</v>
       </c>
       <c r="C39">
-        <v>0.2194017515915414</v>
+        <v>0.1651547428133782</v>
       </c>
       <c r="D39">
         <v>2026</v>
       </c>
       <c r="E39">
-        <v>-0.1883185981439661</v>
+        <v>-0.1331392688890709</v>
       </c>
     </row>
   </sheetData>
